--- a/libro1maro.xlsx
+++ b/libro1maro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Adhesivo Bateria iPhone 4 al mejor precio del mercado</t>
   </si>
   <si>
-    <t>I4-095</t>
-  </si>
-  <si>
     <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4/iphone4/bolsabateriaviscosa.jpg</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t xml:space="preserve">Repuesto Antena Gsm para iPhone 4. </t>
   </si>
   <si>
-    <t>I4-007</t>
-  </si>
-  <si>
     <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4/iphone4/wifi-iphone4.jpg</t>
   </si>
   <si>
@@ -507,6 +501,411 @@
   </si>
   <si>
     <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4/power-flex-4.jpg</t>
+  </si>
+  <si>
+    <t>iphone 4s</t>
+  </si>
+  <si>
+    <t>Boton Home Blanco iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-022</t>
+  </si>
+  <si>
+    <t>Broche PresiÃ³n Bateria Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4S-054</t>
+  </si>
+  <si>
+    <t>Boton Home con Flex iPhone 4S Negro</t>
+  </si>
+  <si>
+    <t>I4S-021</t>
+  </si>
+  <si>
+    <t>Boton Home Negro iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-020</t>
+  </si>
+  <si>
+    <t>Cable Flex Home iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-019</t>
+  </si>
+  <si>
+    <t>Bateria iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-023</t>
+  </si>
+  <si>
+    <t>Cable Flexible antena wifi iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-060</t>
+  </si>
+  <si>
+    <t>Camara Frontal iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-018</t>
+  </si>
+  <si>
+    <t>Altavoz/Cascos iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-025</t>
+  </si>
+  <si>
+    <t>CÃ¡mara Trasera Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4S-044</t>
+  </si>
+  <si>
+    <t>Carcasa Trasera iPhone 4S Blanca</t>
+  </si>
+  <si>
+    <t>I4S-017</t>
+  </si>
+  <si>
+    <t>Carcasa Trasera iPhone 4S Negra</t>
+  </si>
+  <si>
+    <t>I4S-016</t>
+  </si>
+  <si>
+    <t>I4S-050</t>
+  </si>
+  <si>
+    <t>I4S-015</t>
+  </si>
+  <si>
+    <t>Cubierta Antena Wifi Iphone 4s</t>
+  </si>
+  <si>
+    <t>I4S-051</t>
+  </si>
+  <si>
+    <t>Embellecedor CÃ¡mara Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4S-045</t>
+  </si>
+  <si>
+    <t>Flex Volumen &amp; Jack Audio iPhone 4S</t>
+  </si>
+  <si>
+    <t>Comprar Repuesto Cable Flex Audio iPhone 4S al mejor precio . Pieza compuesta por Jack de Audio y Cable Flex de Control de Volumen !!!</t>
+  </si>
+  <si>
+    <t>I4S-026</t>
+  </si>
+  <si>
+    <t>Junta de goma botÃ³n home iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-059</t>
+  </si>
+  <si>
+    <t>Kit Botones Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4S-043</t>
+  </si>
+  <si>
+    <t>Marco iPhone 4S Blanco</t>
+  </si>
+  <si>
+    <t>I4S-039</t>
+  </si>
+  <si>
+    <t>Marco iPhone 4S Negro</t>
+  </si>
+  <si>
+    <t>I4S-040</t>
+  </si>
+  <si>
+    <t>Marco Metalizado Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4s-035</t>
+  </si>
+  <si>
+    <t>Marco trasero iPhone 4S Blanco</t>
+  </si>
+  <si>
+    <t>I4S-037</t>
+  </si>
+  <si>
+    <t>Marco trasero iPhone 4S Negro</t>
+  </si>
+  <si>
+    <t>I4S-038</t>
+  </si>
+  <si>
+    <t>Pant. Tactil + LCD Blanca iPhone 4S (Grade A+)</t>
+  </si>
+  <si>
+    <t>I4S-002</t>
+  </si>
+  <si>
+    <t>Pant. Tactil + LCD Negro iPhone 4S (Grade A+)</t>
+  </si>
+  <si>
+    <t>I4S-001</t>
+  </si>
+  <si>
+    <t>Pantalla LCD iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-006</t>
+  </si>
+  <si>
+    <t>Pantalla tactil negra Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4s-034</t>
+  </si>
+  <si>
+    <t>Placa protectora conector carga Iphone 4S Negro</t>
+  </si>
+  <si>
+    <t>I4S-053</t>
+  </si>
+  <si>
+    <t>Placa protectora conector carga Iphone 4S Plata</t>
+  </si>
+  <si>
+    <t>I4S-052</t>
+  </si>
+  <si>
+    <t>Power Flex y Sensor Proximidad iPhone 4S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprar &lt;strong&gt;Power Flex y Sensor Proximidad iPhone 4S&lt;/strong&gt; al mejor precio. </t>
+  </si>
+  <si>
+    <t>I4S-005</t>
+  </si>
+  <si>
+    <t>Vibrador iPhone 4S</t>
+  </si>
+  <si>
+    <t>I4S-003</t>
+  </si>
+  <si>
+    <t>Kit Tornillos Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4S-042</t>
+  </si>
+  <si>
+    <t>Tornillo Conector Dock Iphone 4S</t>
+  </si>
+  <si>
+    <t>Comprar Tornillo Conector Dock Iphone 4S</t>
+  </si>
+  <si>
+    <t>I4S-046</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/boton-home-4sb.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/brochepresionbateriaiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/BotonHomeconFlexiPhone4SNegro.jpeg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/boton-home-4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/botonflex4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/bateria-4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/flexantenawifi4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/camara-front-4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/auricular-4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/camaratraseraiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/trasera-blanca-4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/tras-4s-negra.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/conectorcargadatosmicrofonoiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/conector-carga-datos-iphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/cubiertaantenawifiiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/embellecedorcamaraiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/i4s026.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/soporteboton4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/botonencendidovibracionyvolumeniphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/marco-blanco-iphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/marco-negro-iphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/marcometalizadoiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/marco-trasero-iphone4s-blanco.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/marco-trasero-iphone4s-negro.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/lcd-tactil-4sblancoS.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/lcdiphone4snegra.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/lcd-iphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/pantallatactilnegraiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/placaprotectoraconectorcargaiphone4snegro.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/placaprotectoraconectorcargaiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/powerflex-4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/vibrador-iphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/kittornillosiphone4s.jpg</t>
+  </si>
+  <si>
+    <t>http://inetinformatic.me/imagesarticulos/IPHONE/iphone4s/tornillodockiphone4s.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boton Home Blanco para tu iPhone 4S al mejor precio. No incluye el cable flex. </t>
+  </si>
+  <si>
+    <t>Broche de Presion de Bateria para iPhone 4S original al mejor precio.</t>
+  </si>
+  <si>
+    <t>Boton Home con Flex para IPhone 4S.No se admite devolución de este artículo, por que una mala manipulación puede dejar inservible esta pieza de repuesto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boton Home Negro para tu iPhone 4S al mejor precio</t>
+  </si>
+  <si>
+    <t>Cable flex del botón home para 4S. Este repuesto es necesario si tiene el botón home roto ya que esta función es imprescindible para el funcionamiento de su iPhone 4S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bateria Repuesto para tu iPhone 4S (1430 mAh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cámara Frontal Repuesto para iPhone 4S.</t>
+  </si>
+  <si>
+    <t>Altavoz/Casco para iPhone 4S de repuesto al mejor precio.</t>
+  </si>
+  <si>
+    <t>Cámara Trasera Iphone 4S.</t>
+  </si>
+  <si>
+    <t>Carcasa trasera Negra para iPhone 4Sal mejor precio. Si tu iPhone tiene la tapa agrietada o rota este es el repuesto que estabas buscando. Estrena iPhone!!</t>
+  </si>
+  <si>
+    <t>Carcasa trasera Blanca para iPhone 4S al mejor precio. Si tu iPhone tiene la tapa agrietada o rota este es el repuesto que estabas buscando. Estrena iPhone!!</t>
+  </si>
+  <si>
+    <t>Conector Carga/Datos+Micrófono iPhone 4S Blanco</t>
+  </si>
+  <si>
+    <t>Conector de Carga y Datos para iPhone 4S negro.</t>
+  </si>
+  <si>
+    <t>Conector Carga/Datos+Micrófono iPhone 4S Negro</t>
+  </si>
+  <si>
+    <t>Embellecedor Cámara Iphone 4S .Fabricado con la máxima calidad.</t>
+  </si>
+  <si>
+    <t>Junta de goma botón home iPhone 4S.</t>
+  </si>
+  <si>
+    <t>Boton de encendido, vibración y volumen Iphone 4S.</t>
+  </si>
+  <si>
+    <t>Marco de color Blanco para iPhone 4S.</t>
+  </si>
+  <si>
+    <t>Marco de color Negro para iPhone 4S</t>
+  </si>
+  <si>
+    <t>Este  Marco  Metalizado le permitirá sustituir el originario de su Iphone 4S en caso de que presente arañazos o golpes. Color: Plata metalizado, Incluye Marco.</t>
+  </si>
+  <si>
+    <t>Marco para contraportada de iPhone 4S de color Blanco, no incluye cristal trasero</t>
+  </si>
+  <si>
+    <t>Marco para contraportada de iPhone 4S de color Negro, no incluye cristal trasero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla LCD + Táctil  iPhone 4S de color blanco. Este repuesto es igual al original, de alta calidad y con la tecnología retina. </t>
+  </si>
+  <si>
+    <t>Pantalla LCD + Táctil  iPhone 4S de color negro. Este repuesto es igual al original, de alta calidad y con la tecnología retina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pantalla LCD para iPhone 4S al mejor precio. Si tienes problemas de visualización en tu pantalla,  este es el repuesto indicado, sustituye la pantalla LCD de tu iPhone 4S y estrena movil nuevo. </t>
+  </si>
+  <si>
+    <t>Pantalla  Tactil  iPhone 4S de color negro. Este repuesto es igual al original y de alta calidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placa protectora conector carga Iphone 4S.Placa metálica de repuesto compatible con iPhone 4S, ubicado justo encima del conector de carga y datos del iPhone 4S. Color: Negro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placa protectora conector carga Iphone 4S.Placa metálica de repuesto compatible con iPhone 4S, ubicado justo encima del conector de carga y datos del iPhone 4S. Color: Plata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrador de iPhone 4S. Cambia el vibrador de su iPhone 4S y disfruta de movil nuevo. </t>
+  </si>
+  <si>
+    <t>Kit Tornillos Iphone 4S. Tornillos del kit completo del iPhone 4s.</t>
+  </si>
+  <si>
+    <t>I4-003</t>
   </si>
 </sst>
 </file>
@@ -846,16 +1245,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -914,18 +1313,18 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -935,18 +1334,18 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -956,18 +1355,18 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -977,18 +1376,18 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -998,18 +1397,18 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1019,18 +1418,18 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1040,18 +1439,18 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1061,18 +1460,18 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1082,18 +1481,18 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1103,18 +1502,18 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1124,18 +1523,18 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1145,18 +1544,18 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1166,18 +1565,18 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1187,18 +1586,18 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1208,18 +1607,18 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1229,18 +1628,18 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1250,18 +1649,18 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1271,18 +1670,18 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1292,18 +1691,18 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1313,18 +1712,18 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1334,18 +1733,18 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1355,18 +1754,18 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1376,18 +1775,18 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1397,18 +1796,18 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1418,18 +1817,18 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1439,18 +1838,18 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1460,18 +1859,18 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1481,18 +1880,18 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1502,18 +1901,18 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1523,18 +1922,18 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1544,18 +1943,18 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>131</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="D33" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1565,18 +1964,18 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="D34" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1586,18 +1985,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="D35" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1607,18 +2006,18 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="D36" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1628,18 +2027,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>147</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="D37" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" t="s">
-        <v>150</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1649,18 +2048,18 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="D38" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" t="s">
-        <v>154</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1670,18 +2069,18 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
+        <v>153</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>155</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="D39" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" t="s">
-        <v>158</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1691,10 +2090,729 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="2" t="s">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>165</v>
+      </c>
+      <c r="K43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>167</v>
+      </c>
+      <c r="K44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>175</v>
+      </c>
+      <c r="K48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>177</v>
+      </c>
+      <c r="K49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>181</v>
+      </c>
+      <c r="K51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>183</v>
+      </c>
+      <c r="K52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>194</v>
+      </c>
+      <c r="K58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>196</v>
+      </c>
+      <c r="K59" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>198</v>
+      </c>
+      <c r="K60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>200</v>
+      </c>
+      <c r="K61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>204</v>
+      </c>
+      <c r="K63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>208</v>
+      </c>
+      <c r="K65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>210</v>
+      </c>
+      <c r="K66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>212</v>
+      </c>
+      <c r="K67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>214</v>
+      </c>
+      <c r="K68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
+        <v>289</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>216</v>
+      </c>
+      <c r="K69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>218</v>
+      </c>
+      <c r="K70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>223</v>
+      </c>
+      <c r="K72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>225</v>
+      </c>
+      <c r="K73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>228</v>
+      </c>
+      <c r="K74" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
